--- a/xls/skillMainConfig.xlsx
+++ b/xls/skillMainConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="3780" windowWidth="28815" windowHeight="8790"/>
+    <workbookView xWindow="6510" yWindow="5220" windowWidth="28815" windowHeight="7350"/>
   </bookViews>
   <sheets>
     <sheet name="@主技能" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="159">
   <si>
     <t>id[!.][funcInt]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -29,15 +29,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>子技能1,子技能2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>主技能:SkillMain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>actionType[.][funcInt]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -71,42 +63,572 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>手术刀传球（主\攻击回合）：提升n%传球值，持续2进攻回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔性庆祝（协\攻击回合）：己方进攻时可发动，若射门得分全队得到鼓舞，射门值提升，持续3回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴力抽射（主\攻击回合）：本次射门提升25%射门值，若进球，则降低门将的守门值n%，持续3个防守回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100601</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100301</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100701</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全能中场（主\进攻回合）：提升射门、传球、盘带n%，持续3进攻回合</t>
+  </si>
+  <si>
+    <t>100801</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子技能1,子技能2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外脚背助攻（主\攻击回合）：本次传球必然完美传球，并且接球者额外增加n%射门值</t>
+  </si>
+  <si>
+    <t>101201,101202</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101301,101302</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚定信心（协\全回合）：使用技能的回合，本队所有球员免疫所有负面状态，自己同时增加10点怒气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101501</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>越位陷阱（协\防守回合）：对方进攻时可使用，有80%几率造成对手越位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101601,101602</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴力抢断（主\防守回合）：提升抢断值5%，抢断成功后，被抢断者盘带值下降n%，持续3回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后防中坚（协\全回合）：立即解除本方后防线（后卫、后腰、门将）所有负面状态，并提升n点怒气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101701</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凶狠铲断（主\防守回合）：提升抢断值5%，抢断成功后，被抢断者射门值下降%，持续3回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101901,101902</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>透支防守（主\防守回合）：消耗大量体力使得本次防守提高防守值n%，之后的2个防守回合由于体力透支，防守值下降n%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102001,102002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大力轰门（主\进攻回合）：本次射门提升n%射门值，持续2回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102301</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机敏跑位（主\进攻回合）：出色的跑位意识，每次在进攻时都有良好的位置，每次射门提升进球率n%，持续到比赛结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102401</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102501</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兰花指突破（主\进攻回合）：骚气的突破姿势，让对手沉醉，被突破的球员防守值下降n%，持续2个防守回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102601</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金童状态（主\进攻回合）：提高射正率n%，持续3个进攻回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102901</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>103001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精妙传递（主\进攻回合）：提高传球值n%，持续2个进攻回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撞墙配合（协\进攻回合）：队友持球时可发动，撞墙配合后，此回合忽视防守者n%的防守值，并无视该轮次所有抢断技能。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>103201,103202</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精准抢断（主\防守回合）：提高抢断值n%，持续1回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>103301</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进球鼓舞（协\进攻回合）：使用技能的回合若进球，进球者怒气恢复n点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>振臂高呼（协\防守回合）：本回合对方未进球，则后防线（门将、后卫、后腰）提升怒气n点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>103401,103402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>103701</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霸气扑球（主\防守回合）：扑球后的振臂呐喊，能有效提高后防线的士气。成功扑球后，提高后防线n%的防守值，持续1个防守回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>103801</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劲射（主\进攻回合）：本次射门提升n%射门值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>103901</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>104001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精神领袖（协\进攻回合）：使用技能后，全队射门值上升n%，持续2回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>104101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变相突破（主\进攻回合）：突破成功后，降低防守者n%防守值，持续3回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>留洋快马（主\进攻回合）：本回合提升n%盘带值，持续3回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>104201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>104301</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精准传递（主\进攻回合）：提升传球值n%，持续3回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中场支柱（协\进攻回合）：提升本轮本方传球、射门值n%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>104401</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抢断大师（协\ 防守回合）:提升本轮防守者抢断值n%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>104501</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偷听战术（主\防守回合）：精通多国语言的埃布埃，常常混入对手教练席窃听对手战术；使用技能后，提升全队防守值n%，持续3个回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>104601</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>104701</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精准选位（协\防守回合）：良好的选位，有效的降低对手传出威胁球的几率，使用技能的回合，降低对手n%的传球值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>104801</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拦截大师（协\防守回合）：升本轮防守者拦截值n%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>104901</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴身防守（主\防守回合）：提高防守值n%，持续2回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>105001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞身救险（主\防守回合）：提高守门值n%，持续1回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>105101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妙传（主\进攻回合）：提高传球值n点，持续1回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>105201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑铲（主\进攻回合）：提高抢断值n点，持续1回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>105301</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劲射（主\进攻回合）：提高射门值n点，持续1回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>105401</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扣球过人（主\进攻回合）：提高盘带值n点，持续1回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奋力扑救（主\防守回合）：提高守门值n点，持续1回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>105501</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>105601</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扑救（主\防守回合）：提高防守值n点，持续1回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡位（主\防守回合）：提高防守值n点，持续1回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>105701</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>趟球过人（主\进攻回合）：提高盘带值n点，持续1回合</t>
+  </si>
+  <si>
+    <t>105801</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿裆射门（主\进攻回合）：本次射门增加n%射门值，若破门得分将信心大增，提升自己n%射门值，持续3回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>210101,210102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单车过人（主\进攻回合）：若成功过人，本方前场（前锋、边锋、前腰）提升传球值n%，持续3回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>210201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>210301,210302</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗜血倒钩（主\进攻回合）：本回合提升射门值n%，下回合起射门值下降m%，持续2回合</t>
+  </si>
+  <si>
+    <t>马赛回旋（主\进攻回合）：本回合提升盘带值n%，若成功过人，则对位者降低防守值m%，持续3回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>220201,220202</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中场屏障（主\防守回合）：提升中场球员（边中前卫、后腰）防守值n%，持续2回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>220301</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>230101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高位压迫（主\防守回合）：高位压迫使得对位者无所适从，对位进攻者盘带、传球值下降n%，持续3回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘲讽式防守（主\防守回合）：提高n%抢断值，若抢断成功，嘲讽对手，使得对位者射门值下降m%，持续3回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>230201,230202</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>230301</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防线指挥官（主\防守回合）：若回合未失分，下回合开始提升后防线球员（边中后卫、翼卫）n%防守值，持续2回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100501</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意识传递（主\攻击回合）：将自身射门值n%加成在传球值上，持续3个进攻回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大圣式超车（主\攻击回合）：利用速度强行突破防守者，被突破的球员，n%几率在接下来的N个防守回合无法参与防守</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101001,101002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition[.][funcInt]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人球分过（主\进攻回合）：持球时可发动，过人必然成功（盘带值成功率提升100%），传球值提升n%，持续1回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>彩虹过人（主\攻击回合）：成功突破后，对防守者信心造成极大打击，对位者防守值下降n%，持续3个防守回合</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>手术刀传球（主\攻击回合）：提升n%传球值，持续2进攻回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔性庆祝（协\攻击回合）：己方进攻时可发动，若射门得分全队得到鼓舞，射门值提升，持续3回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴力抽射（主\攻击回合）：本次射门提升25%射门值，若进球，则降低门将的守门值n%，持续3个防守回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100601</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100301</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100701</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全能中场（主\进攻回合）：提升射门、传球、盘带n%，持续3进攻回合</t>
-  </si>
-  <si>
-    <t>100801</t>
+    <t>远程发炮（主\进攻回合）：禁区正面远射时，提高n%射门值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102701</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>220301</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大力出奇迹（主\进攻回合）：本次射门n%几率发生折射变线，使守门员措手不及无法扑救</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捡漏达人（协\攻击回合）：本方进攻时可使用，使用后，射门未进可进行一次补射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100401</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>断球反击（协\防守回合）：使用技能的回合，若是抢断则触发防守反击，反击时全体传球值提升n%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101801</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>103101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>协防补位（协\防守回合）：队友一对一防守时，协防补位，形成二人防守</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泪流满面（协\进攻回合）：哭鼻子似乎引发了对手的同情心，本回合降低防守者n%防守值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102101,102102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出击狂魔（主\防守回合）：弃门出击，75%几率直接阻断对方进攻，出击失败时，若对方射门则直接面对空门（面对空门射门,只要无封堵球员必进）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精准抢断（主\防守回合）：技能拥有者防守时可发动，本回合提升抢断值n%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王牌杀手（主\防守回合）：对位进攻者50%几率受伤，射门、传球、盘带值下降n%；无论是否造成对位者受伤，都有50%几率获得黄牌</t>
+  </si>
+  <si>
+    <t>1,2,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卧草战术（协\防守回合)：本方领先时可使用，防守时可选择卧草，50%几率直接消耗对方一回合，50%几率自己吃到黄牌</t>
+  </si>
+  <si>
+    <t>2,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直塞身后（协\攻击回合）：中间轮可发动，50%几率接球者将反越位成功，形成单刀机会；50%几率被直接门将破坏</t>
+  </si>
+  <si>
+    <t>101401</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100901</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>useStep[.][funcTupleInt]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102801,102802</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -123,11 +645,20 @@
 10、己方进攻中间这轮次
 11、己方进攻终结者轮次
 13、本方领先
-14、本方落后</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>condition[.][funcInt]</t>
+14、本方落后
+16、持球者禁区外正面持球时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>103601</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门柱保命（主\防守回合）：使用技能的3个防守回合内，未能扑出的球（攻守判定为进球），有n%几率打在门柱上。3回合内击中门柱一次后失效</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -181,7 +712,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -191,6 +722,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -207,7 +744,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -226,6 +763,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -601,112 +1145,121 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="G68" sqref="G68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="26.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="32.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="81.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="137.125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" ht="168.75" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="4" customFormat="1" ht="191.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="F2" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>1001</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="7">
         <v>2</v>
       </c>
-      <c r="C3" s="7">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>1002</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="1">
         <v>2</v>
       </c>
-      <c r="C4" s="7">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1003</v>
       </c>
-      <c r="B5" s="1">
-        <v>3</v>
+      <c r="B5" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="C5" s="7">
         <v>1</v>
@@ -715,161 +1268,1461 @@
         <v>0</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="10">
+        <v>1004</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="7">
+        <v>2</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="H6" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="10">
+        <v>1005</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="H7" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>1006</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>1007</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="7">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>1008</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" s="7">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="10">
+        <v>1010</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="H11" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="10">
+        <v>1011</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="9">
+        <v>3</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="H12" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="10">
+        <v>1012</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C13" s="9">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="10">
+        <v>1013</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14" s="9">
+        <v>6</v>
+      </c>
+      <c r="D14" s="10">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="10">
+        <v>1015</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C15" s="9">
+        <v>4</v>
+      </c>
+      <c r="D15" s="10">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="10">
+        <v>1016</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" s="9">
+        <v>3</v>
+      </c>
+      <c r="D16" s="10">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" s="10">
+        <v>1017</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" s="9">
+        <v>6</v>
+      </c>
+      <c r="D17" s="10">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" s="10">
+        <v>1018</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" s="9">
+        <v>4</v>
+      </c>
+      <c r="D18" s="10">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="H18" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" s="10">
+        <v>1019</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="9">
+        <v>3</v>
+      </c>
+      <c r="D19" s="10">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" s="10">
+        <v>1020</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" s="9">
+        <v>3</v>
+      </c>
+      <c r="D20" s="10">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" s="10">
+        <v>1021</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" s="9">
+        <v>4</v>
+      </c>
+      <c r="D21" s="10">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="H21" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" s="10">
+        <v>1022</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="9">
+        <v>1</v>
+      </c>
+      <c r="D22" s="10">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H22" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" s="10">
+        <v>1023</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C23" s="9">
+        <v>1</v>
+      </c>
+      <c r="D23" s="10">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" s="10">
+        <v>1024</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C24" s="9">
+        <v>1</v>
+      </c>
+      <c r="D24" s="10">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="H24" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" s="10">
+        <v>1025</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C25" s="9">
+        <v>1</v>
+      </c>
+      <c r="D25" s="10">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H25" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" s="10">
+        <v>1026</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C26" s="9">
+        <v>1</v>
+      </c>
+      <c r="D26" s="10">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H26" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27" s="10">
+        <v>1027</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C27" s="9">
+        <v>16</v>
+      </c>
+      <c r="D27" s="10">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H27" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28" s="10">
+        <v>1028</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C28" s="9">
+        <v>3</v>
+      </c>
+      <c r="D28" s="10">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="H28" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" s="10">
+        <v>1029</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C29" s="9">
+        <v>2</v>
+      </c>
+      <c r="D29" s="10">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H29" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30" s="10">
+        <v>1030</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C30" s="9">
+        <v>1</v>
+      </c>
+      <c r="D30" s="10">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H30" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" s="10">
+        <v>1031</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C31" s="9">
+        <v>5</v>
+      </c>
+      <c r="D31" s="10">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="H31" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" s="10">
+        <v>1032</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C32" s="9">
+        <v>22</v>
+      </c>
+      <c r="D32" s="10">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H32" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" s="10">
+        <v>1033</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C33" s="9">
+        <v>1</v>
+      </c>
+      <c r="D33" s="10">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H33" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34" s="10">
+        <v>1034</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C34" s="9">
+        <v>4</v>
+      </c>
+      <c r="D34" s="10">
+        <v>0</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H34" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35" s="10">
+        <v>1037</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C35" s="9">
+        <v>4</v>
+      </c>
+      <c r="D35" s="10">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H35" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A36" s="10">
+        <v>1038</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C36" s="9">
+        <v>2</v>
+      </c>
+      <c r="D36" s="10">
+        <v>0</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="H36" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A37" s="10">
+        <v>1039</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C37" s="9">
+        <v>1</v>
+      </c>
+      <c r="D37" s="10">
+        <v>0</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H37" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A38" s="10">
+        <v>1040</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C38" s="9">
+        <v>2</v>
+      </c>
+      <c r="D38" s="10">
+        <v>0</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H38" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A39" s="10">
+        <v>1041</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C39" s="9">
+        <v>1</v>
+      </c>
+      <c r="D39" s="10">
+        <v>0</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H39" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A40" s="10">
+        <v>1042</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C40" s="9">
+        <v>1</v>
+      </c>
+      <c r="D40" s="10">
+        <v>0</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H40" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A41" s="10">
+        <v>1043</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C41" s="9">
+        <v>1</v>
+      </c>
+      <c r="D41" s="10">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="H41" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A42" s="10">
+        <v>1044</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C42" s="9">
+        <v>2</v>
+      </c>
+      <c r="D42" s="10">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H42" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A43" s="10">
+        <v>1045</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C43" s="9">
+        <v>4</v>
+      </c>
+      <c r="D43" s="10">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H43" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A44" s="10">
+        <v>1046</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C44" s="9">
+        <v>3</v>
+      </c>
+      <c r="D44" s="10">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H44" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A45" s="10">
+        <v>1047</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C45" s="9">
+        <v>4</v>
+      </c>
+      <c r="D45" s="10">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H45" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A46" s="10">
+        <v>1048</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C46" s="9">
+        <v>4</v>
+      </c>
+      <c r="D46" s="10">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="H46" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A47" s="10">
+        <v>1049</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C47" s="9">
+        <v>3</v>
+      </c>
+      <c r="D47" s="10">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="H47" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A48" s="10">
+        <v>1050</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C48" s="9">
+        <v>4</v>
+      </c>
+      <c r="D48" s="10">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H48" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A49" s="10">
+        <v>1051</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C49" s="9">
+        <v>1</v>
+      </c>
+      <c r="D49" s="10">
+        <v>0</v>
+      </c>
+      <c r="E49" s="10"/>
+      <c r="F49" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H49" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A50" s="10">
+        <v>1052</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C50" s="9">
+        <v>3</v>
+      </c>
+      <c r="D50" s="10">
+        <v>0</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="H50" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A51" s="10">
+        <v>1053</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C51" s="9">
+        <v>1</v>
+      </c>
+      <c r="D51" s="10">
+        <v>0</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H51" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A52" s="10">
+        <v>1054</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C52" s="9">
+        <v>1</v>
+      </c>
+      <c r="D52" s="10">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="H52" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A53" s="10">
+        <v>1055</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C53" s="9">
+        <v>4</v>
+      </c>
+      <c r="D53" s="10">
+        <v>0</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="H53" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A54" s="10">
+        <v>1056</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C54" s="9">
+        <v>4</v>
+      </c>
+      <c r="D54" s="10">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H54" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A55" s="10">
+        <v>1057</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C55" s="9">
+        <v>3</v>
+      </c>
+      <c r="D55" s="10">
+        <v>0</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="H55" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A56" s="10">
+        <v>1058</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C56" s="9">
+        <v>1</v>
+      </c>
+      <c r="D56" s="10">
+        <v>0</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H56" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A57" s="10">
+        <v>2101</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C57" s="9">
+        <v>1</v>
+      </c>
+      <c r="D57" s="10">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G57" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="H57" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A58" s="10">
+        <v>2102</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C58" s="9">
+        <v>1</v>
+      </c>
+      <c r="D58" s="10">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G58" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="H58" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A59" s="10">
+        <v>2103</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C59" s="9">
+        <v>1</v>
+      </c>
+      <c r="D59" s="10">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H59" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A60" s="10">
+        <v>2201</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C60" s="9">
+        <v>1</v>
+      </c>
+      <c r="D60" s="10">
+        <v>0</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G60" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="H60" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A61" s="10">
+        <v>2202</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C61" s="9">
+        <v>1</v>
+      </c>
+      <c r="D61" s="10">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="H61" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A62" s="10">
+        <v>2203</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C62" s="9">
+        <v>1</v>
+      </c>
+      <c r="D62" s="10">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G62" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="H62" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A63" s="10">
+        <v>2301</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C63" s="9">
+        <v>3</v>
+      </c>
+      <c r="D63" s="10">
+        <v>0</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G63" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="H63" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A64" s="10">
+        <v>2302</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C64" s="9">
+        <v>3</v>
+      </c>
+      <c r="D64" s="10">
+        <v>0</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G64" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="H64" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A65" s="10">
+        <v>2303</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C65" s="9">
+        <v>4</v>
+      </c>
+      <c r="D65" s="10">
+        <v>0</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G65" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="H65" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="12">
+        <v>1014</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C66" s="13">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>1006</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="7">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="1">
-        <v>1007</v>
-      </c>
-      <c r="B7" s="1">
-        <v>2</v>
-      </c>
-      <c r="C7" s="7">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="1">
-        <v>1008</v>
-      </c>
-      <c r="B8" s="1">
-        <v>3</v>
-      </c>
-      <c r="C8" s="7">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C11" s="9"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C12" s="9"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C13" s="9"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C14" s="9"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C15" s="9"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C16" s="9"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C17" s="9"/>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C18" s="9"/>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C19" s="9"/>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C20" s="9"/>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C21" s="9"/>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C22" s="9"/>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C23" s="9"/>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C24" s="9"/>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C25" s="9"/>
-    </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C26" s="9"/>
-    </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C27" s="9"/>
-    </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C28" s="9"/>
-    </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C29" s="9"/>
-    </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C30" s="9"/>
-    </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C31" s="9"/>
-    </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C32" s="9"/>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C33" s="9"/>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C34" s="9"/>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C35" s="9"/>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C36" s="9"/>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C37" s="9"/>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C38" s="9"/>
+      <c r="D66" s="12">
+        <v>0</v>
+      </c>
+      <c r="F66" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="G66" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="H66" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A67" s="10">
+        <v>1009</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C67" s="9">
+        <v>10</v>
+      </c>
+      <c r="D67" s="10">
+        <v>0</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H67" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A68" s="10">
+        <v>1036</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C68" s="9">
+        <v>4</v>
+      </c>
+      <c r="D68" s="10">
+        <v>1</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="G68" s="10" t="s">
+        <v>158</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -893,7 +2746,7 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/xls/skillMainConfig.xlsx
+++ b/xls/skillMainConfig.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="6510" yWindow="5220" windowWidth="28815" windowHeight="7350"/>
+    <workbookView xWindow="6510" yWindow="5280" windowWidth="28815" windowHeight="7290"/>
   </bookViews>
   <sheets>
     <sheet name="@主技能" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="162">
   <si>
     <t>id[!.][funcInt]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,22 +63,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>手术刀传球（主\攻击回合）：提升n%传球值，持续2进攻回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔性庆祝（协\攻击回合）：己方进攻时可发动，若射门得分全队得到鼓舞，射门值提升，持续3回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>100101</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>暴力抽射（主\攻击回合）：本次射门提升25%射门值，若进球，则降低门将的守门值n%，持续3个防守回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>100601</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -91,9 +79,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>全能中场（主\进攻回合）：提升射门、传球、盘带n%，持续3进攻回合</t>
-  </si>
-  <si>
     <t>100801</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -106,9 +91,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>外脚背助攻（主\攻击回合）：本次传球必然完美传球，并且接球者额外增加n%射门值</t>
-  </si>
-  <si>
     <t>101201,101202</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -133,30 +115,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>暴力抢断（主\防守回合）：提升抢断值5%，抢断成功后，被抢断者盘带值下降n%，持续3回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后防中坚（协\全回合）：立即解除本方后防线（后卫、后腰、门将）所有负面状态，并提升n点怒气</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>101701</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>凶狠铲断（主\防守回合）：提升抢断值5%，抢断成功后，被抢断者射门值下降%，持续3回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>101901,101902</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>透支防守（主\防守回合）：消耗大量体力使得本次防守提高防守值n%，之后的2个防守回合由于体力透支，防守值下降n%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>102001,102002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -165,10 +131,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>大力轰门（主\进攻回合）：本次射门提升n%射门值，持续2回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>102301</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -185,18 +147,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>兰花指突破（主\进攻回合）：骚气的突破姿势，让对手沉醉，被突破的球员防守值下降n%，持续2个防守回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>102601</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>金童状态（主\进攻回合）：提高射正率n%，持续3个进攻回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>102901</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -205,34 +159,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>精妙传递（主\进攻回合）：提高传球值n%，持续2个进攻回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>撞墙配合（协\进攻回合）：队友持球时可发动，撞墙配合后，此回合忽视防守者n%的防守值，并无视该轮次所有抢断技能。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>103201,103202</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>精准抢断（主\防守回合）：提高抢断值n%，持续1回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>103301</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>进球鼓舞（协\进攻回合）：使用技能的回合若进球，进球者怒气恢复n点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>振臂高呼（协\防守回合）：本回合对方未进球，则后防线（门将、后卫、后腰）提升怒气n点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>103401,103402</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -241,18 +175,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>霸气扑球（主\防守回合）：扑球后的振臂呐喊，能有效提高后防线的士气。成功扑球后，提高后防线n%的防守值，持续1个防守回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>103801</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>劲射（主\进攻回合）：本次射门提升n%射门值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>103901</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -261,22 +187,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>精神领袖（协\进攻回合）：使用技能后，全队射门值上升n%，持续2回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>104101</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>变相突破（主\进攻回合）：突破成功后，降低防守者n%防守值，持续3回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>留洋快马（主\进攻回合）：本回合提升n%盘带值，持续3回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>104201</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -285,30 +199,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>精准传递（主\进攻回合）：提升传球值n%，持续3回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中场支柱（协\进攻回合）：提升本轮本方传球、射门值n%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>104401</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>抢断大师（协\ 防守回合）:提升本轮防守者抢断值n%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>104501</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>偷听战术（主\防守回合）：精通多国语言的埃布埃，常常混入对手教练席窃听对手战术；使用技能后，提升全队防守值n%，持续3个回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>104601</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -317,34 +215,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>精准选位（协\防守回合）：良好的选位，有效的降低对手传出威胁球的几率，使用技能的回合，降低对手n%的传球值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>104801</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>拦截大师（协\防守回合）：升本轮防守者拦截值n%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>104901</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>贴身防守（主\防守回合）：提高防守值n%，持续2回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>105001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>飞身救险（主\防守回合）：提高守门值n%，持续1回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>105101</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -408,18 +290,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>穿裆射门（主\进攻回合）：本次射门增加n%射门值，若破门得分将信心大增，提升自己n%射门值，持续3回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>210101,210102</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>单车过人（主\进攻回合）：若成功过人，本方前场（前锋、边锋、前腰）提升传球值n%，持续3回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>210201</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -428,21 +302,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>嗜血倒钩（主\进攻回合）：本回合提升射门值n%，下回合起射门值下降m%，持续2回合</t>
-  </si>
-  <si>
-    <t>马赛回旋（主\进攻回合）：本回合提升盘带值n%，若成功过人，则对位者降低防守值m%，持续3回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>220201,220202</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中场屏障（主\防守回合）：提升中场球员（边中前卫、后腰）防守值n%，持续2回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>220301</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -451,14 +314,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>高位压迫（主\防守回合）：高位压迫使得对位者无所适从，对位进攻者盘带、传球值下降n%，持续3回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘲讽式防守（主\防守回合）：提高n%抢断值，若抢断成功，嘲讽对手，使得对位者射门值下降m%，持续3回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>230201,230202</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -467,22 +322,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>防线指挥官（主\防守回合）：若回合未失分，下回合开始提升后防线球员（边中后卫、翼卫）n%防守值，持续2回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>100501</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>意识传递（主\攻击回合）：将自身射门值n%加成在传球值上，持续3个进攻回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大圣式超车（主\攻击回合）：利用速度强行突破防守者，被突破的球员，n%几率在接下来的N个防守回合无法参与防守</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>101001,101002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -491,18 +334,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>人球分过（主\进攻回合）：持球时可发动，过人必然成功（盘带值成功率提升100%），传球值提升n%，持续1回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>彩虹过人（主\攻击回合）：成功突破后，对防守者信心造成极大打击，对位者防守值下降n%，持续3个防守回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>远程发炮（主\进攻回合）：禁区正面远射时，提高n%射门值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>102701</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -511,22 +342,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>大力出奇迹（主\进攻回合）：本次射门n%几率发生折射变线，使守门员措手不及无法扑救</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>捡漏达人（协\攻击回合）：本方进攻时可使用，使用后，射门未进可进行一次补射</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>100401</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>断球反击（协\防守回合）：使用技能的回合，若是抢断则触发防守反击，反击时全体传球值提升n%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>101801</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -535,14 +354,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>协防补位（协\防守回合）：队友一对一防守时，协防补位，形成二人防守</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泪流满面（协\进攻回合）：哭鼻子似乎引发了对手的同情心，本回合降低防守者n%防守值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>102101,102102</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -567,10 +378,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>精准抢断（主\防守回合）：技能拥有者防守时可发动，本回合提升抢断值n%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1,2,3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -599,36 +406,247 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>王牌杀手（主\防守回合）：对位进攻者50%几率受伤，射门、传球、盘带值下降n%；无论是否造成对位者受伤，都有50%几率获得黄牌</t>
-  </si>
-  <si>
     <t>1,2,3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>2,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101401</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100901</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>useStep[.][funcTupleInt]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102801,102802</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>103601</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>卧草战术（协\防守回合)：本方领先时可使用，防守时可选择卧草，50%几率直接消耗对方一回合，50%几率自己吃到黄牌</t>
-  </si>
-  <si>
-    <t>2,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>直塞身后（协\攻击回合）：中间轮可发动，50%几率接球者将反越位成功，形成单刀机会；50%几率被直接门将破坏</t>
-  </si>
-  <si>
-    <t>101401</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100901</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>useStep[.][funcTupleInt]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>102801,102802</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门柱保命（主\防守回合）：使用技能的3个防守回合内，未能扑出的球（攻守判定为进球），有n%几率打在门柱上。3回合内击中门柱一次后失效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴力抽射（主\攻击回合）：本次射门提升10%射门值，若进球，则降低门将的守门值15%，持续3个防守回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捡漏达人（协\攻击回合）：本方进攻时可使用，使用后，射门未进可进行一次补射，补射时增加N点射门值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手术刀传球（主\攻击回合）：提升15%传球值，持续2进攻回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意识传递（主\攻击回合）：将自身射门值10%加成在传球值上，持续3个进攻回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔性庆祝（协\攻击回合）：己方进攻时可发动，若射门得分全队得到鼓舞，射门值提升8%，持续3回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全能中场（主\进攻回合）：提升射门、传球、盘带6%，持续3进攻回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大圣式超车（主\攻击回合）：利用速度强行突破防守者，被突破的球员，50%几率在接下来的N个防守回合无法参与防守</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精准抢断（主\防守回合）：技能拥有者防守时可发动，本回合提升抢断值20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外脚背助攻（主\攻击回合）：本次传球必然完美传球，并且接球者额外增加15%射门值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴力抢断（主\防守回合）：提升抢断值10%，抢断成功后，被抢断者盘带值下降15%，持续3回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后防中坚（协\全回合）：立即解除本方后防线（后卫、后腰、门将）所有负面状态，并提升10点怒气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>断球反击（协\防守回合）：使用技能的回合，若是抢断则触发防守反击，反击时全体传球值提升20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凶狠铲断（主\防守回合）：提升抢断值10%，抢断成功后，被抢断者射门值下降10%，持续3回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>透支防守（主\防守回合）：消耗大量体力使得本次防守提高防守值30%，之后的2个防守回合由于体力透支，防守值下降30%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大力轰门（主\进攻回合）：本次射门提升10%射门值，持续2回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人球分过（主\进攻回合）：持球时可发动，过人必然成功（盘带值成功率提升100%），传球值提升25%，持续1回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彩虹过人（主\攻击回合）：成功突破后，对防守者信心造成极大打击，对位者防守值下降15%，持续3个防守回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兰花指突破（主\进攻回合）：骚气的突破姿势，让对手沉醉，被突破的球员防守值下降10%，持续2个防守回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金童状态（主\进攻回合）：提高射正率35%，持续3个进攻回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程发炮（主\进攻回合）：禁区正面远射时，提高15%射门值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进球鼓舞（协\进攻回合）：使用技能的回合若进球，进球者怒气恢复50点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王牌杀手（主\防守回合）：对位进攻者50%几率受伤，射门、传球、盘带值下降10%；无论是否造成对位者受伤，都有50%几率获得黄牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精妙传递（主\进攻回合）：提高传球值10%，持续2个进攻回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>协防补位（协\防守回合）：队友一对一防守时，协防补位，形成二人防守，自身防守值提升1000点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撞墙配合（协\进攻回合）：队友持球时可发动，撞墙配合后，此回合忽视防守者10%的防守值，并无视该轮次所有抢断技能。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精准抢断（主\防守回合）：提高抢断值15%，持续1回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>振臂高呼（协\防守回合）：本回合对方未进球，则后防线（门将、后卫、后腰）提升怒气20点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霸气扑球（主\防守回合）：扑球后的振臂呐喊，能有效提高后防线的士气。成功扑球后，提高后防线8%的防守值，持续1个防守回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泪流满面（协\进攻回合）：哭鼻子似乎引发了对手的同情心，本回合降低防守者10%防守值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劲射（主\进攻回合）：本次射门提升10%射门值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精神领袖（协\进攻回合）：使用技能后，全队射门值上升5%，持续2回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变相突破（主\进攻回合）：突破成功后，降低防守者8%防守值，持续3回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>留洋快马（主\进攻回合）：本回合提升12%盘带值，持续3回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精准传递（主\进攻回合）：提升传球值8%，持续3回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中场支柱（协\进攻回合）：提升本轮本方传球、射门值6%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抢断大师（协\ 防守回合）:提升本轮防守者抢断值9%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偷听战术（主\防守回合）：精通多国语言的埃布埃，常常混入对手教练席窃听对手战术；使用技能后，提升全队防守值4%，持续3个回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精准选位（协\防守回合）：良好的选位，有效的降低对手传出威胁球的几率，使用技能的回合，降低对手15%的传球值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拦截大师（协\防守回合）：升本轮防守者拦截值15%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴身防守（主\防守回合）：提高防守值8%，持续2回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞身救险（主\防守回合）：提高守门值10%，持续1回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿裆射门（主\进攻回合）：本次射门增加10%射门值，若破门得分将信心大增，提升自己10%射门值，持续3回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单车过人（主\进攻回合）：若成功过人，本方前场（前锋、边锋、前腰）提升传球值20%，持续3回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗜血倒钩（主\进攻回合）：本回合提升射门值n%，下回合起射门值下降m%，持续3回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大力出奇迹（主\进攻回合）：本次射门20%几率发生折射变线，使守门员措手不及无法扑救</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马赛回旋（主\进攻回合）：本回合提升盘带值20%，若成功过人，则对位者降低防守值15%，持续3回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中场屏障（主\防守回合）：提升中场球员（边中前卫、后腰）防守值15%，持续2回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高位压迫（主\防守回合）：高位压迫使得对位者无所适从，对位进攻者盘带、传球值下降15%，持续3回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘲讽式防守（主\防守回合）：提高10%抢断值，若抢断成功，嘲讽对手，使得对位者射门值下降20%，持续3回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防线指挥官（主\防守回合）：若回合未失分，下回合开始提升后防线球员（边中后卫、翼卫）15%防守值，持续2回合</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -646,19 +664,20 @@
 11、己方进攻终结者轮次
 13、本方领先
 14、本方落后
-16、持球者禁区外正面持球时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>103601</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>门柱保命（主\防守回合）：使用技能的3个防守回合内，未能扑出的球（攻守判定为进球），有n%几率打在门柱上。3回合内击中门柱一次后失效</t>
+16、持球者禁区外正面持球时
+15、对方单刀时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战术犯规（协\防守回合）：对方单刀时，进行犯规，根据犯规地点判给对方任意球或点球，自己得到黄牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>103501</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -712,7 +731,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -731,6 +750,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -744,7 +769,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -770,80 +795,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -856,14 +814,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -898,7 +856,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -933,7 +891,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1145,12 +1103,12 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:H68"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="G68" sqref="G68"/>
+      <selection pane="bottomLeft" activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1170,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>153</v>
+        <v>101</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>5</v>
@@ -1193,7 +1151,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>6</v>
@@ -1202,7 +1160,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>4</v>
@@ -1213,7 +1171,7 @@
         <v>1001</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>134</v>
+        <v>86</v>
       </c>
       <c r="C3" s="7">
         <v>1</v>
@@ -1222,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>10</v>
@@ -1236,7 +1194,7 @@
         <v>1002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>135</v>
+        <v>87</v>
       </c>
       <c r="C4" s="7">
         <v>1</v>
@@ -1248,7 +1206,7 @@
         <v>9</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="H4" s="1">
         <v>2</v>
@@ -1259,7 +1217,7 @@
         <v>1003</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>136</v>
+        <v>88</v>
       </c>
       <c r="C5" s="7">
         <v>1</v>
@@ -1268,10 +1226,10 @@
         <v>0</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H5" s="1">
         <v>3</v>
@@ -1282,7 +1240,7 @@
         <v>1004</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>135</v>
+        <v>87</v>
       </c>
       <c r="C6" s="7">
         <v>2</v>
@@ -1291,10 +1249,10 @@
         <v>0</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="H6" s="10">
         <v>3</v>
@@ -1305,7 +1263,7 @@
         <v>1005</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>137</v>
+        <v>89</v>
       </c>
       <c r="C7" s="7">
         <v>1</v>
@@ -1314,10 +1272,10 @@
         <v>0</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H7" s="10">
         <v>3</v>
@@ -1328,7 +1286,7 @@
         <v>1006</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>137</v>
+        <v>89</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
@@ -1337,10 +1295,10 @@
         <v>0</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="H8" s="1">
         <v>1</v>
@@ -1351,7 +1309,7 @@
         <v>1007</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>136</v>
+        <v>88</v>
       </c>
       <c r="C9" s="7">
         <v>2</v>
@@ -1360,10 +1318,10 @@
         <v>0</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="H9" s="1">
         <v>2</v>
@@ -1374,7 +1332,7 @@
         <v>1008</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>136</v>
+        <v>88</v>
       </c>
       <c r="C10" s="7">
         <v>1</v>
@@ -1383,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="H10" s="1">
         <v>3</v>
@@ -1397,7 +1355,7 @@
         <v>1010</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>136</v>
+        <v>88</v>
       </c>
       <c r="C11" s="7">
         <v>1</v>
@@ -1406,10 +1364,10 @@
         <v>0</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H11" s="10">
         <v>3</v>
@@ -1420,7 +1378,7 @@
         <v>1011</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>136</v>
+        <v>88</v>
       </c>
       <c r="C12" s="9">
         <v>3</v>
@@ -1429,10 +1387,10 @@
         <v>0</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="H12" s="10">
         <v>3</v>
@@ -1443,7 +1401,7 @@
         <v>1012</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>137</v>
+        <v>89</v>
       </c>
       <c r="C13" s="9">
         <v>1</v>
@@ -1452,10 +1410,10 @@
         <v>0</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="H13" s="10">
         <v>1</v>
@@ -1466,7 +1424,7 @@
         <v>1013</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>139</v>
+        <v>90</v>
       </c>
       <c r="C14" s="9">
         <v>6</v>
@@ -1475,10 +1433,10 @@
         <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H14" s="10">
         <v>3</v>
@@ -1489,7 +1447,7 @@
         <v>1015</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>137</v>
+        <v>89</v>
       </c>
       <c r="C15" s="9">
         <v>4</v>
@@ -1498,10 +1456,10 @@
         <v>0</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H15" s="10">
         <v>3</v>
@@ -1512,7 +1470,7 @@
         <v>1016</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>136</v>
+        <v>88</v>
       </c>
       <c r="C16" s="9">
         <v>3</v>
@@ -1521,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>29</v>
+        <v>117</v>
       </c>
       <c r="H16" s="10">
         <v>3</v>
@@ -1535,7 +1493,7 @@
         <v>1017</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>136</v>
+        <v>88</v>
       </c>
       <c r="C17" s="9">
         <v>6</v>
@@ -1544,10 +1502,10 @@
         <v>0</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>30</v>
+        <v>118</v>
       </c>
       <c r="H17" s="10">
         <v>3</v>
@@ -1558,7 +1516,7 @@
         <v>1018</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>139</v>
+        <v>90</v>
       </c>
       <c r="C18" s="9">
         <v>4</v>
@@ -1567,10 +1525,10 @@
         <v>0</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>128</v>
+        <v>82</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="H18" s="10">
         <v>3</v>
@@ -1581,7 +1539,7 @@
         <v>1019</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>136</v>
+        <v>88</v>
       </c>
       <c r="C19" s="9">
         <v>3</v>
@@ -1590,10 +1548,10 @@
         <v>0</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="H19" s="10">
         <v>3</v>
@@ -1604,7 +1562,7 @@
         <v>1020</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>135</v>
+        <v>87</v>
       </c>
       <c r="C20" s="9">
         <v>3</v>
@@ -1613,10 +1571,10 @@
         <v>0</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>34</v>
+        <v>121</v>
       </c>
       <c r="H20" s="10">
         <v>3</v>
@@ -1627,7 +1585,7 @@
         <v>1021</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>135</v>
+        <v>87</v>
       </c>
       <c r="C21" s="9">
         <v>4</v>
@@ -1636,10 +1594,10 @@
         <v>0</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>132</v>
+        <v>84</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>133</v>
+        <v>85</v>
       </c>
       <c r="H21" s="10">
         <v>3</v>
@@ -1650,7 +1608,7 @@
         <v>1022</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>135</v>
+        <v>87</v>
       </c>
       <c r="C22" s="9">
         <v>1</v>
@@ -1659,10 +1617,10 @@
         <v>0</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>37</v>
+        <v>122</v>
       </c>
       <c r="H22" s="10">
         <v>2</v>
@@ -1673,7 +1631,7 @@
         <v>1023</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>139</v>
+        <v>90</v>
       </c>
       <c r="C23" s="9">
         <v>1</v>
@@ -1682,10 +1640,10 @@
         <v>0</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H23" s="10">
         <v>3</v>
@@ -1696,7 +1654,7 @@
         <v>1024</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>140</v>
+        <v>91</v>
       </c>
       <c r="C24" s="9">
         <v>1</v>
@@ -1705,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="H24" s="10">
         <v>3</v>
@@ -1719,7 +1677,7 @@
         <v>1025</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>139</v>
+        <v>90</v>
       </c>
       <c r="C25" s="9">
         <v>1</v>
@@ -1728,10 +1686,10 @@
         <v>0</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c r="H25" s="10">
         <v>3</v>
@@ -1742,7 +1700,7 @@
         <v>1026</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>134</v>
+        <v>86</v>
       </c>
       <c r="C26" s="9">
         <v>1</v>
@@ -1751,10 +1709,10 @@
         <v>0</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="H26" s="10">
         <v>3</v>
@@ -1765,7 +1723,7 @@
         <v>1027</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>135</v>
+        <v>87</v>
       </c>
       <c r="C27" s="9">
         <v>16</v>
@@ -1774,10 +1732,10 @@
         <v>0</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>122</v>
+        <v>79</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="H27" s="10">
         <v>2</v>
@@ -1788,7 +1746,7 @@
         <v>1028</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>145</v>
+        <v>96</v>
       </c>
       <c r="C28" s="9">
         <v>3</v>
@@ -1797,10 +1755,10 @@
         <v>0</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>154</v>
+        <v>102</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="H28" s="10">
         <v>3</v>
@@ -1811,7 +1769,7 @@
         <v>1029</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>141</v>
+        <v>92</v>
       </c>
       <c r="C29" s="9">
         <v>2</v>
@@ -1820,10 +1778,10 @@
         <v>0</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>52</v>
+        <v>128</v>
       </c>
       <c r="H29" s="10">
         <v>2</v>
@@ -1834,7 +1792,7 @@
         <v>1030</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>137</v>
+        <v>89</v>
       </c>
       <c r="C30" s="9">
         <v>1</v>
@@ -1843,10 +1801,10 @@
         <v>0</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>47</v>
+        <v>130</v>
       </c>
       <c r="H30" s="10">
         <v>1</v>
@@ -1857,7 +1815,7 @@
         <v>1031</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>142</v>
+        <v>93</v>
       </c>
       <c r="C31" s="9">
         <v>5</v>
@@ -1866,10 +1824,10 @@
         <v>0</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H31" s="10">
         <v>3</v>
@@ -1880,7 +1838,7 @@
         <v>1032</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>142</v>
+        <v>93</v>
       </c>
       <c r="C32" s="9">
         <v>22</v>
@@ -1889,10 +1847,10 @@
         <v>0</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>48</v>
+        <v>132</v>
       </c>
       <c r="H32" s="10">
         <v>3</v>
@@ -1903,7 +1861,7 @@
         <v>1033</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>141</v>
+        <v>92</v>
       </c>
       <c r="C33" s="9">
         <v>1</v>
@@ -1912,10 +1870,10 @@
         <v>0</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>50</v>
+        <v>133</v>
       </c>
       <c r="H33" s="10">
         <v>3</v>
@@ -1926,7 +1884,7 @@
         <v>1034</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>141</v>
+        <v>92</v>
       </c>
       <c r="C34" s="9">
         <v>4</v>
@@ -1935,10 +1893,10 @@
         <v>0</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>53</v>
+        <v>134</v>
       </c>
       <c r="H34" s="10">
         <v>3</v>
@@ -1946,45 +1904,43 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="10">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="C35" s="9">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D35" s="10">
         <v>0</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="H35" s="10">
-        <v>3</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="H35" s="10"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="10">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B36" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36" s="9">
+        <v>4</v>
+      </c>
+      <c r="D36" s="10">
+        <v>0</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G36" s="10" t="s">
         <v>135</v>
-      </c>
-      <c r="C36" s="9">
-        <v>2</v>
-      </c>
-      <c r="D36" s="10">
-        <v>0</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>131</v>
       </c>
       <c r="H36" s="10">
         <v>3</v>
@@ -1992,68 +1948,68 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="10">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>143</v>
+        <v>87</v>
       </c>
       <c r="C37" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D37" s="10">
         <v>0</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>58</v>
+        <v>136</v>
       </c>
       <c r="H37" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="10">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>142</v>
+        <v>94</v>
       </c>
       <c r="C38" s="9">
+        <v>1</v>
+      </c>
+      <c r="D38" s="10">
+        <v>0</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="H38" s="10">
         <v>2</v>
-      </c>
-      <c r="D38" s="10">
-        <v>0</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="H38" s="10">
-        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" s="10">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>144</v>
+        <v>93</v>
       </c>
       <c r="C39" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D39" s="10">
         <v>0</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>63</v>
+        <v>138</v>
       </c>
       <c r="H39" s="10">
         <v>3</v>
@@ -2061,10 +2017,10 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" s="10">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>144</v>
+        <v>95</v>
       </c>
       <c r="C40" s="9">
         <v>1</v>
@@ -2073,10 +2029,10 @@
         <v>0</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>64</v>
+        <v>139</v>
       </c>
       <c r="H40" s="10">
         <v>3</v>
@@ -2084,10 +2040,10 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="10">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>137</v>
+        <v>95</v>
       </c>
       <c r="C41" s="9">
         <v>1</v>
@@ -2096,56 +2052,56 @@
         <v>0</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>67</v>
+        <v>140</v>
       </c>
       <c r="H41" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" s="10">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>142</v>
+        <v>89</v>
       </c>
       <c r="C42" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D42" s="10">
         <v>0</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>68</v>
+        <v>141</v>
       </c>
       <c r="H42" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" s="10">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>144</v>
+        <v>93</v>
       </c>
       <c r="C43" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" s="10">
         <v>0</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>70</v>
+        <v>142</v>
       </c>
       <c r="H43" s="10">
         <v>3</v>
@@ -2153,22 +2109,22 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" s="10">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="C44" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" s="10">
         <v>0</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="H44" s="10">
         <v>3</v>
@@ -2176,22 +2132,22 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45" s="10">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>137</v>
+        <v>90</v>
       </c>
       <c r="C45" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" s="10">
         <v>0</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>75</v>
+        <v>144</v>
       </c>
       <c r="H45" s="10">
         <v>3</v>
@@ -2199,10 +2155,10 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46" s="10">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>137</v>
+        <v>89</v>
       </c>
       <c r="C46" s="9">
         <v>4</v>
@@ -2211,10 +2167,10 @@
         <v>0</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="H46" s="10">
         <v>3</v>
@@ -2222,22 +2178,22 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47" s="10">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="C47" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" s="10">
         <v>0</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="H47" s="10">
         <v>3</v>
@@ -2245,22 +2201,22 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48" s="10">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>141</v>
+        <v>86</v>
       </c>
       <c r="C48" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" s="10">
         <v>0</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>81</v>
+        <v>147</v>
       </c>
       <c r="H48" s="10">
         <v>3</v>
@@ -2268,80 +2224,80 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" s="10">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>137</v>
+        <v>92</v>
       </c>
       <c r="C49" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D49" s="10">
         <v>0</v>
       </c>
-      <c r="E49" s="10"/>
       <c r="F49" s="3" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="H49" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50" s="10">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>144</v>
+        <v>89</v>
       </c>
       <c r="C50" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D50" s="10">
         <v>0</v>
       </c>
+      <c r="E50" s="10"/>
       <c r="F50" s="3" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="H50" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51" s="10">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="C51" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D51" s="10">
         <v>0</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="H51" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52" s="10">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>141</v>
+        <v>87</v>
       </c>
       <c r="C52" s="9">
         <v>1</v>
@@ -2350,33 +2306,33 @@
         <v>0</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="H52" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53" s="10">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>139</v>
+        <v>92</v>
       </c>
       <c r="C53" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D53" s="10">
         <v>0</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="H53" s="10">
         <v>3</v>
@@ -2384,10 +2340,10 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A54" s="10">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="C54" s="9">
         <v>4</v>
@@ -2396,10 +2352,10 @@
         <v>0</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="H54" s="10">
         <v>3</v>
@@ -2407,22 +2363,22 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55" s="10">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="C55" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" s="10">
         <v>0</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="H55" s="10">
         <v>3</v>
@@ -2430,22 +2386,22 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56" s="10">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>141</v>
+        <v>87</v>
       </c>
       <c r="C56" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D56" s="10">
         <v>0</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>96</v>
+        <v>65</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="H56" s="10">
         <v>3</v>
@@ -2453,10 +2409,10 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A57" s="10">
-        <v>2101</v>
+        <v>1058</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>135</v>
+        <v>92</v>
       </c>
       <c r="C57" s="9">
         <v>1</v>
@@ -2465,21 +2421,21 @@
         <v>0</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G57" s="10" t="s">
-        <v>98</v>
+        <v>67</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="H57" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A58" s="10">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>141</v>
+        <v>87</v>
       </c>
       <c r="C58" s="9">
         <v>1</v>
@@ -2488,21 +2444,21 @@
         <v>0</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>100</v>
+        <v>149</v>
       </c>
       <c r="H58" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A59" s="10">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>135</v>
+        <v>92</v>
       </c>
       <c r="C59" s="9">
         <v>1</v>
@@ -2511,21 +2467,21 @@
         <v>0</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>103</v>
+        <v>69</v>
+      </c>
+      <c r="G59" s="10" t="s">
+        <v>150</v>
       </c>
       <c r="H59" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A60" s="10">
-        <v>2201</v>
+        <v>2103</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>135</v>
+        <v>87</v>
       </c>
       <c r="C60" s="9">
         <v>1</v>
@@ -2534,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="G60" s="10" t="s">
-        <v>124</v>
+        <v>70</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="H60" s="10">
         <v>2</v>
@@ -2545,10 +2501,10 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A61" s="10">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>139</v>
+        <v>87</v>
       </c>
       <c r="C61" s="9">
         <v>1</v>
@@ -2557,21 +2513,21 @@
         <v>0</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="H61" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A62" s="10">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="C62" s="9">
         <v>1</v>
@@ -2580,10 +2536,10 @@
         <v>0</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="H62" s="10">
         <v>3</v>
@@ -2591,22 +2547,22 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A63" s="10">
-        <v>2301</v>
+        <v>2203</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="C63" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D63" s="10">
         <v>0</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>109</v>
+        <v>154</v>
       </c>
       <c r="H63" s="10">
         <v>3</v>
@@ -2614,10 +2570,10 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A64" s="10">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>142</v>
+        <v>90</v>
       </c>
       <c r="C64" s="9">
         <v>3</v>
@@ -2626,10 +2582,10 @@
         <v>0</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="H64" s="10">
         <v>3</v>
@@ -2637,91 +2593,114 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A65" s="10">
+        <v>2302</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C65" s="9">
+        <v>3</v>
+      </c>
+      <c r="D65" s="10">
+        <v>0</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G65" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="H65" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A66" s="10">
         <v>2303</v>
       </c>
-      <c r="B65" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C65" s="9">
+      <c r="B66" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C66" s="9">
         <v>4</v>
       </c>
-      <c r="D65" s="10">
-        <v>0</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="G65" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="H65" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="12">
+      <c r="D66" s="10">
+        <v>0</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G66" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="H66" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="12">
         <v>1014</v>
       </c>
-      <c r="B66" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="C66" s="13">
+      <c r="B67" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C67" s="13">
         <v>13</v>
       </c>
-      <c r="D66" s="12">
-        <v>0</v>
-      </c>
-      <c r="F66" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="G66" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="H66" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A67" s="10">
-        <v>1009</v>
-      </c>
-      <c r="B67" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="C67" s="9">
-        <v>10</v>
-      </c>
-      <c r="D67" s="10">
-        <v>0</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="H67" s="10">
+      <c r="D67" s="12">
+        <v>0</v>
+      </c>
+      <c r="F67" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="G67" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="H67" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A68" s="10">
+        <v>1009</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C68" s="9">
+        <v>10</v>
+      </c>
+      <c r="D68" s="10">
+        <v>0</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H68" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A69" s="10">
         <v>1036</v>
       </c>
-      <c r="B68" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="C68" s="9">
+      <c r="B69" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C69" s="9">
         <v>4</v>
       </c>
-      <c r="D68" s="10">
-        <v>1</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="G68" s="10" t="s">
-        <v>158</v>
+      <c r="D69" s="10">
+        <v>1</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G69" s="10" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
